--- a/1-策略开发/1-开发中的策略/14-oscillator_drive/1-回测/回测结果/2-20210101-20210702/oscillator_drive参数优化记录.xlsx
+++ b/1-策略开发/1-开发中的策略/14-oscillator_drive/1-回测/回测结果/2-20210101-20210702/oscillator_drive参数优化记录.xlsx
@@ -1,41 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CTA\1-策略开发\1-开发中的策略\14-oscillator_drive\1-回测\回测结果\2-20210101-20210702\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B90F34-9121-474E-ADE5-8BAD2E8B6B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="478" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1-参数优化区间设置" sheetId="3" r:id="rId1"/>
-    <sheet name="1-6个月滚动回测结果" sheetId="6" r:id="rId2"/>
+    <sheet name="2-参数优化区间设置" sheetId="7" r:id="rId2"/>
+    <sheet name="1-6个月滚动回测结果" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1-6个月滚动回测结果'!$A$1:$AX$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1-6个月滚动回测结果'!$A$1:$AX$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>multi_timeframe参数优化区间设置</t>
   </si>
@@ -220,17 +204,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.000000_ "/>
-    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
-    <numFmt numFmtId="182" formatCode="#,##0&quot;组&quot;"/>
-    <numFmt numFmtId="183" formatCode="#,##0.00&quot;小时&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00&quot;天&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="11">
+    <numFmt numFmtId="176" formatCode="#,##0.00&quot;小时&quot;"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.000000_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.0000_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0&quot;组&quot;"/>
+    <numFmt numFmtId="182" formatCode="#,##0.00&quot;天&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -269,14 +257,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,18 +410,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor theme="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
-        <bgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor theme="0" tint="-0.14996795556505"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -379,35 +690,280 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -419,12 +975,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -443,107 +1002,74 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="181" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -557,7 +1083,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -801,24 +1327,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="13" customWidth="1"/>
     <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="3" max="3" width="7.375" customWidth="1"/>
     <col min="4" max="4" width="5.375" customWidth="1"/>
@@ -827,216 +1354,216 @@
     <col min="8" max="8" width="11.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+    <row r="3" spans="1:6">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="18">
         <v>3</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="18">
         <v>3</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="18">
         <v>60</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="18">
         <f t="shared" ref="F3:F9" si="0">((E3-C3)/D3)+1</f>
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+    <row r="4" spans="1:6">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="20">
         <v>2</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="20">
         <v>2</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="20">
         <v>10</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+    <row r="5" spans="1:6">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="18">
         <v>2</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="18">
         <v>2</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="18">
         <v>30</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+    <row r="6" spans="1:6">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="18">
         <v>50</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="18">
         <v>1</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="18">
         <v>50</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+    <row r="7" spans="1:6">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="18">
         <v>0.1</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="18">
         <v>6</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="18">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+    <row r="8" spans="1:6">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="18">
         <v>2</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="18">
         <v>2</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="18">
         <v>20</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="9" spans="1:6">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="20">
         <v>2</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="20">
         <v>2</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="20">
         <v>60</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="18">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="19">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22">
         <f>PRODUCT(F3:F9)</f>
         <v>22950000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="20">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="23">
         <f>(F10*1.9)/3600</f>
         <v>12112.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="21">
+    <row r="12" ht="16.5" spans="1:6">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="24">
         <f>F11/24</f>
         <v>504.6875</v>
       </c>
@@ -1047,25 +1574,275 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E12"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="8" max="8" width="11.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.95" customHeight="1" spans="1:6">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="18">
+        <v>3</v>
+      </c>
+      <c r="D3" s="18">
+        <v>3</v>
+      </c>
+      <c r="E3" s="18">
+        <v>60</v>
+      </c>
+      <c r="F3" s="18">
+        <f t="shared" ref="F3:F9" si="0">((E3-C3)/D3)+1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="20">
+        <v>2</v>
+      </c>
+      <c r="D4" s="20">
+        <v>2</v>
+      </c>
+      <c r="E4" s="20">
+        <v>10</v>
+      </c>
+      <c r="F4" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="18">
+        <v>2</v>
+      </c>
+      <c r="D5" s="18">
+        <v>2</v>
+      </c>
+      <c r="E5" s="18">
+        <v>30</v>
+      </c>
+      <c r="F5" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="18">
+        <v>50</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18">
+        <v>50</v>
+      </c>
+      <c r="F6" s="18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="18">
+        <v>7</v>
+      </c>
+      <c r="F7" s="18">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="18">
+        <v>2</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2</v>
+      </c>
+      <c r="E8" s="18">
+        <v>20</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="20">
+        <v>2</v>
+      </c>
+      <c r="D9" s="20">
+        <v>2</v>
+      </c>
+      <c r="E9" s="20">
+        <v>60</v>
+      </c>
+      <c r="F9" s="18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22">
+        <f>PRODUCT(F3:F9)</f>
+        <v>29700000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="23">
+        <f>(F10*1.9)/3600</f>
+        <v>15675</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:6">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="24">
+        <f>F11/24</f>
+        <v>653.125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E12"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="3" max="7" width="13.75" customWidth="1"/>
     <col min="8" max="8" width="11.125"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
     <col min="10" max="10" width="12.875" customWidth="1"/>
     <col min="11" max="11" width="3.375" customWidth="1"/>
     <col min="12" max="12" width="13.875" customWidth="1"/>
@@ -1100,7 +1877,7 @@
     <col min="50" max="50" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1236,7 +2013,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -1244,7 +2021,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="2">
-        <v>1E-4</v>
+        <v>0.0001</v>
       </c>
       <c r="D2" s="2">
         <v>0.2</v>
@@ -1264,52 +2041,54 @@
       <c r="I2" s="5">
         <v>44377</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="10"/>
-      <c r="AX2" s="11"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="9"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AX2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <autoFilter ref="A1:AX2">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>